--- a/Notebook/Dataset/metrics list.xlsx
+++ b/Notebook/Dataset/metrics list.xlsx
@@ -549,7 +549,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A12:E39" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:E5" displayName="Table3" name="Table3" id="1" totalsRowShown="0">
+  <autoFilter ref="B3:E5"/>
+  <tableColumns count="4">
+    <tableColumn name="Calculated Column Name" id="1"/>
+    <tableColumn name="Description / Purpose" id="2"/>
+    <tableColumn name="DAX formula" id="3"/>
+    <tableColumn name="Table" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A12:E39" displayName="Table1" name="Table1" id="2" totalsRowShown="0">
   <autoFilter ref="A12:E39"/>
   <tableColumns count="5">
     <tableColumn name="Sno" id="1"/>
@@ -557,19 +570,6 @@
     <tableColumn name="Description / Purpose" id="3"/>
     <tableColumn name="DAX FORMULA" id="4"/>
     <tableColumn name="TABLE" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:E5" displayName="Table3" name="Table3" id="2" totalsRowShown="0">
-  <autoFilter ref="B3:E5"/>
-  <tableColumns count="4">
-    <tableColumn name="Calculated Column Name" id="1"/>
-    <tableColumn name="Description / Purpose" id="2"/>
-    <tableColumn name="DAX formula" id="3"/>
-    <tableColumn name="Table" id="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
